--- a/testing-evidences.xlsx
+++ b/testing-evidences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Projects\githubprocessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE700A4-0389-4D0F-B080-207048E7A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08BB0D-13CF-4355-AD6B-9761DBF68EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,50 +194,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>595057</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>30360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA512498-FE52-1E6A-9A0D-B639B4287D50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="32294257" cy="12793860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>176</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
@@ -261,7 +217,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -305,7 +261,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -349,7 +305,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -358,6 +314,50 @@
         <a:xfrm>
           <a:off x="0" y="14097000"/>
           <a:ext cx="7887801" cy="6782747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>288938</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59235914-BDD1-441A-3418-27B9C385F09F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="22844138" cy="10355120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,9 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A8E19C-48C5-4B53-B315-4950F157F6FF}">
   <dimension ref="A73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
